--- a/config_aomi/game_enter_btn_config.xlsx
+++ b/config_aomi/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -2720,7 +2720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
@@ -3141,11 +3141,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4437,7 +4437,7 @@
         <v>212</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>72</v>

--- a/config_aomi/game_enter_btn_config.xlsx
+++ b/config_aomi/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1491,10 +1491,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>108#11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_041_yybjsj",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1679,6 +1675,10 @@
   </si>
   <si>
     <t>120#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2267,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2333,7 +2333,7 @@
         <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2344,7 +2344,7 @@
         <v>326</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2679,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2767,7 +2767,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2789,7 +2789,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2834,7 +2834,7 @@
         <v>290</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2842,10 +2842,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2860,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3014,7 +3014,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3025,7 +3025,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3089,7 +3089,7 @@
         <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3127,7 +3127,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3165,7 @@
         <v>278</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3204,7 +3204,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3242,7 +3242,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3253,7 +3253,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +3266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3291,7 +3291,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3305,10 +3305,10 @@
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3529,13 +3529,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E12" s="6">
         <v>11</v>
@@ -3693,7 +3693,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3873,7 +3873,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -5465,7 +5465,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5474,7 +5474,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5482,7 +5482,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5491,7 +5491,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5499,7 +5499,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5508,7 +5508,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5516,7 +5516,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5525,7 +5525,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5533,7 +5533,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5542,7 +5542,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5550,7 +5550,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5559,7 +5559,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5601,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5612,7 +5612,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5644,7 +5644,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5676,7 +5676,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5687,7 +5687,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5751,7 +5751,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5940,7 +5940,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -6076,7 +6076,7 @@
         <v>322</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_aomi/game_enter_btn_config.xlsx
+++ b/config_aomi/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="376">
   <si>
     <t>id|行号</t>
   </si>
@@ -184,10 +184,6 @@
     <t>left_top</t>
   </si>
   <si>
-    <t>"sys_act_base",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>节日扩展活动</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -296,10 +292,6 @@
   </si>
   <si>
     <t>14#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -717,6 +709,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>彩金鱼抽奖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"hall_activity",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -893,6 +889,22 @@
     <t>center5</t>
   </si>
   <si>
+    <t>71#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>76#67</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>77#68</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"by3d_kpshb","game"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -917,6 +929,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>"sys_flqcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>畅玩卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -929,10 +945,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>80#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼游戏上方区域</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -941,18 +953,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_gift","enter_gift_kllb"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_bybs"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_cglb"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>top_right</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1070,6 +1070,10 @@
   </si>
   <si>
     <t>"gift_czlb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>72#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1211,30 +1215,6 @@
   <si>
     <t>小游戏累计赢金抽福卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;101#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;90;101#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;101;31;#</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"vip",</t>
@@ -1328,7 +1308,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Right_shtx</t>
+    <t>108#104#95#72#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1340,15 +1320,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>103#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"by3d_shtx",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>深海探险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>69#73#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1447,6 +1427,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>36;113;89;105#97;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>元旦福利</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1467,10 +1451,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>108#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>top_left</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1487,67 +1467,218 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>119#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>通用转盘</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>"sys_by3d_shop_enter",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_zp1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_040_by_and_cjj_to_ddz_conduct",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_collect_words",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_041_yybjsj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢一把就睡觉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂砸金蛋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_fkqjd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","gift_kllb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","gift_bybs","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","gift_cglb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_048_xnsmt",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9#80#122#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by_hbyts",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼来袭提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>69#125</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>73#</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>124#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;11#</t>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;90;101#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;101#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#11#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;101;31;#11#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#11#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>126#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_3dby_xyxtg",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_shtx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>127#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4#3;116#2#8#122#61#9#117#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>120#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_by3d_shop_enter",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_zp1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_040_by_and_cjj_to_ddz_conduct",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_fishfarm_simplicity",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水族馆入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>109#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩金鱼抽奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>121#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>74#79#36;113;89;93;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_flqcj",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;113;89;105#97;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2#8#61#117#115#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1777,7 +1908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1849,6 +1980,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2130,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2160,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,10 +2308,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2182,10 +2319,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2193,10 +2330,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>196</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,10 +2341,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2247,10 +2384,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2284,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2295,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2341,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2352,10 +2489,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2394,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2435,10 +2572,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2446,10 +2583,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2492,10 +2629,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2539,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +2721,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2735,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2616,10 +2753,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2627,10 +2764,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2638,10 +2775,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2649,9 +2786,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>369</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2673,7 +2812,7 @@
         <v>230</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>343</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2681,10 +2820,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2692,21 +2831,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" t="s">
-        <v>298</v>
+        <v>372</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2721,7 +2860,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2738,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2749,10 +2888,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2772,43 +2911,53 @@
       <c r="B4" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
@@ -2833,7 +2982,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2864,7 +3013,9 @@
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -2874,7 +3025,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2882,10 +3033,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2893,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -2938,7 +3089,7 @@
         <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2952,7 +3103,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2976,7 +3127,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>267</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2989,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3011,95 +3162,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>267</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3114,10 +3190,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>274</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3125,10 +3288,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3139,13 +3302,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3153,7 +3316,7 @@
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="32.875" customWidth="1"/>
@@ -3164,16 +3327,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -3184,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>199</v>
+        <v>339</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3202,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3220,13 +3383,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>346</v>
+        <v>196</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3330,7 +3493,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -3366,17 +3529,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>342</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="24" t="s">
+        <v>351</v>
+      </c>
       <c r="E12" s="6">
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3384,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -3394,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3402,7 +3567,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -3412,7 +3577,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3420,7 +3585,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -3430,7 +3595,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3438,7 +3603,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -3448,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3456,7 +3621,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -3466,7 +3631,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3474,7 +3639,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -3484,7 +3649,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3492,7 +3657,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -3502,7 +3667,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3510,7 +3675,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -3520,7 +3685,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3528,7 +3693,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3538,7 +3703,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3546,7 +3711,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -3556,7 +3721,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3564,7 +3729,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -3574,7 +3739,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3582,7 +3747,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -3592,7 +3757,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3600,7 +3765,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -3610,7 +3775,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3618,7 +3783,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -3628,7 +3793,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3636,7 +3801,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -3646,7 +3811,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3654,7 +3819,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -3664,7 +3829,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3672,7 +3837,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -3682,7 +3847,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3690,7 +3855,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -3700,7 +3865,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3708,7 +3873,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>201</v>
+        <v>341</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3718,7 +3883,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3726,7 +3891,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -3736,7 +3901,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3744,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -3754,7 +3919,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3762,7 +3927,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -3772,7 +3937,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3780,7 +3945,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -3790,7 +3955,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3798,7 +3963,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -3808,7 +3973,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3816,7 +3981,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -3826,7 +3991,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3834,7 +3999,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -3844,7 +4009,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3852,7 +4017,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -3862,7 +4027,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3870,7 +4035,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -3880,7 +4045,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3888,7 +4053,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -3898,7 +4063,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3906,7 +4071,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3915,7 +4080,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3923,7 +4088,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3932,7 +4097,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3940,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3949,7 +4114,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>342</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3957,7 +4122,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3966,7 +4131,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3974,7 +4139,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3983,7 +4148,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3991,7 +4156,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4000,7 +4165,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4008,7 +4173,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4017,7 +4182,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4025,7 +4190,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4034,7 +4199,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4042,7 +4207,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4051,7 +4216,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4059,7 +4224,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4068,7 +4233,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4076,7 +4241,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4085,7 +4250,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4093,7 +4258,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4102,7 +4267,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4110,7 +4275,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -4120,7 +4285,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4128,7 +4293,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4137,7 +4302,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4145,7 +4310,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4154,7 +4319,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4162,7 +4327,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4171,7 +4336,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4179,7 +4344,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4188,7 +4353,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4196,7 +4361,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4205,7 +4370,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4213,7 +4378,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4222,7 +4387,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4230,7 +4395,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4239,7 +4404,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4247,7 +4412,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4256,7 +4421,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4264,7 +4429,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4273,7 +4438,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4281,7 +4446,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4290,7 +4455,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4298,7 +4463,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4307,7 +4472,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4324,7 +4489,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4332,7 +4497,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4341,7 +4506,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4349,7 +4514,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4358,7 +4523,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4366,7 +4531,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4383,7 +4548,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4392,7 +4557,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4400,7 +4565,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4437,13 +4602,13 @@
         <v>212</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4468,7 +4633,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4485,7 +4650,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4494,7 +4659,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4502,7 +4667,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4511,7 +4676,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4519,7 +4684,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4528,7 +4693,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4536,7 +4701,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4545,7 +4710,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4553,7 +4718,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4579,7 +4744,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4587,7 +4752,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4604,7 +4769,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4613,7 +4778,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4695,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4718,7 +4883,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4726,7 +4891,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4735,7 +4900,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4743,7 +4908,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4752,7 +4917,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4760,7 +4925,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4769,7 +4934,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4777,7 +4942,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4786,7 +4951,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4794,7 +4959,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4803,7 +4968,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4811,7 +4976,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4820,7 +4985,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4828,7 +4993,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4837,7 +5002,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4845,7 +5010,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4854,7 +5019,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4862,7 +5027,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4872,7 +5037,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4880,7 +5045,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4889,7 +5054,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4897,7 +5062,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4906,7 +5071,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4914,7 +5079,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4923,7 +5088,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4931,16 +5096,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C102">
         <v>1</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>352</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4948,7 +5116,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -4957,7 +5125,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4965,7 +5133,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4974,7 +5142,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4982,7 +5150,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4991,7 +5159,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4999,19 +5167,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5019,7 +5187,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5028,7 +5196,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5036,7 +5204,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5045,7 +5213,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5053,7 +5221,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5062,7 +5230,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5070,7 +5238,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5079,7 +5247,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5087,7 +5255,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5096,7 +5264,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5104,7 +5272,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5113,7 +5281,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5121,7 +5289,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5130,7 +5298,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5138,7 +5306,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5147,7 +5315,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5155,7 +5323,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5164,7 +5332,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5172,19 +5340,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5192,19 +5360,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5212,7 +5380,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5221,7 +5389,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5229,7 +5397,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5238,7 +5406,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5246,7 +5414,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5255,7 +5423,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5263,7 +5431,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5272,7 +5440,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5280,7 +5448,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5289,7 +5457,109 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>340</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>126</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>127</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +5600,9 @@
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -5340,7 +5612,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5348,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -5357,7 +5629,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -5372,7 +5644,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5404,7 +5676,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5415,7 +5687,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5423,10 +5695,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5434,7 +5706,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5450,7 +5722,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5476,10 +5748,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>271</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5765,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5525,7 +5797,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5533,10 +5805,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5552,7 +5824,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5584,7 +5856,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5601,10 +5873,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5612,10 +5884,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5627,10 +5899,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5654,10 +5926,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5668,7 +5940,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5684,10 +5956,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5707,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5726,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
@@ -5744,10 +6016,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="6">
         <f>'all_enter|所有按钮入口'!E6</f>
@@ -5763,10 +6035,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -5782,10 +6054,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5801,10 +6073,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
@@ -6896,6 +7168,26 @@
       <c r="E117" s="6" t="str">
         <f>'all_enter|所有按钮入口'!F117</f>
         <v>幸运抽奖</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D118" s="6">
+        <f>'all_enter|所有按钮入口'!E118</f>
+        <v>117</v>
+      </c>
+      <c r="E118" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F118</f>
+        <v>元旦福利</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="6">
+        <f>'all_enter|所有按钮入口'!E119</f>
+        <v>118</v>
+      </c>
+      <c r="E119" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F119</f>
+        <v>充值商城</v>
       </c>
     </row>
   </sheetData>
@@ -6940,10 +7232,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
